--- a/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
+++ b/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
@@ -15,14 +15,14 @@
     <sheet name="按线路统计，2014-10-20 至 2014-11-25" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'按线路统计，2014-10-20 至 2014-11-25'!$A$5:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'按线路统计，2014-10-20 至 2014-11-25'!$A$5:$J$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>票价形式</t>
   </si>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线路编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线路名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +48,6 @@
   </si>
   <si>
     <t>市民卡（普通实名卡和不记名卡）刷卡数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,23 +139,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${data.id}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.line}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[list]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.linename}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[list #datalist as data]</t>
+    <t>[/row:list]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[row:list datalist as data]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${totalLabel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.id}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,9 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -803,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,78 +810,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -900,16 +887,14 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -917,12 +902,12 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -930,88 +915,81 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>320970</v>
+      </c>
+      <c r="F9" s="6">
+        <v>627764.75</v>
+      </c>
+      <c r="G9" s="6">
+        <v>85604.28</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>320970</v>
-      </c>
-      <c r="F10" s="6">
-        <v>627764.75</v>
-      </c>
-      <c r="G10" s="6">
-        <v>85604.28</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
+++ b/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
@@ -147,15 +147,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[row:list datalist as data]</t>
+    <t>${totalLabel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[row:list datalist as data, index]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${totalLabel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.id}</t>
+    <t>${index}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -428,6 +428,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,51 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,10 +810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -833,30 +833,30 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -874,10 +874,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="13"/>
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
@@ -887,10 +887,10 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
@@ -902,10 +902,10 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -915,10 +915,10 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -934,41 +934,41 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -977,6 +977,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
@@ -985,11 +990,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
+++ b/labs/test-onetwo/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>票价形式</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>${index}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${#f.format(data.money)}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +799,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,7 +898,9 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
